--- a/Design_Validation/GTAA_Design_Validation/ConductTestData.xlsx
+++ b/Design_Validation/GTAA_Design_Validation/ConductTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UX Design\Validation  design\Final Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitFarhana\UX-Design-Portfolio\Design_Validation\GTAA_Design_Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8BA02-EF39-435A-A350-CCB8EA17C782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341E6F5F-0509-4CDE-8781-258F5EC92D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7616B972-CA85-4A98-937F-1C1309C71591}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{7616B972-CA85-4A98-937F-1C1309C71591}"/>
   </bookViews>
   <sheets>
     <sheet name="Conduct Testing " sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Data" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
     <sheet name="Quantitative &amp; Qualitative " sheetId="6" r:id="rId5"/>
+    <sheet name="opportunites" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
   <si>
     <t>Scenario 1</t>
   </si>
@@ -321,6 +322,72 @@
   </si>
   <si>
     <t>Task Completion % P3</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <t>Place the flight search bar at the top of the page for easier access</t>
+  </si>
+  <si>
+    <t>optimize the search  facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task1 </t>
+  </si>
+  <si>
+    <t>Implement a "back to search results" button or save search context.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task2 </t>
+  </si>
+  <si>
+    <t>Make Wi-Fi information available on the main home page</t>
+  </si>
+  <si>
+    <t>Ensure key information is always easy to find in familiar sections like the footer.</t>
+  </si>
+  <si>
+    <t>Make Wi-Fi information easier to find and more directly available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task3 </t>
+  </si>
+  <si>
+    <t>Make the parking information interactive or give more detailed and helpful updates.</t>
+  </si>
+  <si>
+    <t>Make the map interactive with zoom and more details for a better experience.</t>
+  </si>
+  <si>
+    <t>Add a clear, easy-to-use option to return to the homepage from the reservation page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task4 </t>
+  </si>
+  <si>
+    <t>Simplify navigation by providing a direct link or clearer path to "Mobile Flight Notifications."</t>
+  </si>
+  <si>
+    <t>Add the option to subscribe to notifications via both mobile and email.</t>
+  </si>
+  <si>
+    <t>Make it easier by adding a direct link to real-time notifications on the homepage or in the "Get Ready to Travel" section.</t>
+  </si>
+  <si>
+    <t>Maintain the efficient search functionality.</t>
+  </si>
+  <si>
+    <t>Continue to keep the search process intuitive and efficient.</t>
+  </si>
+  <si>
+    <t>Add a "Return to Homepage" or "Cancel" button on the booking form.</t>
+  </si>
+  <si>
+    <t>Streamline the navigation process to make key information more accessible.</t>
+  </si>
+  <si>
+    <t>Ensure both the footer and search options are clearly visible and functional.</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2874,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$9</c15:sqref>
@@ -2833,7 +2900,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -2856,7 +2923,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$9:$J$9</c15:sqref>
@@ -2869,7 +2936,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -2882,7 +2949,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$10</c15:sqref>
@@ -2908,7 +2975,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -2931,7 +2998,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$10:$J$10</c15:sqref>
@@ -2944,7 +3011,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -2957,7 +3024,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$11</c15:sqref>
@@ -2983,7 +3050,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3006,7 +3073,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$11:$J$11</c15:sqref>
@@ -3019,7 +3086,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3032,7 +3099,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$12</c15:sqref>
@@ -3058,7 +3125,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3081,7 +3148,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$12:$J$12</c15:sqref>
@@ -3094,7 +3161,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3107,7 +3174,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$13</c15:sqref>
@@ -3133,7 +3200,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3156,7 +3223,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$13:$J$13</c15:sqref>
@@ -3169,7 +3236,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3182,7 +3249,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$14</c15:sqref>
@@ -3209,7 +3276,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3232,7 +3299,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$14:$J$14</c15:sqref>
@@ -3245,7 +3312,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3258,7 +3325,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$15</c15:sqref>
@@ -3285,7 +3352,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3308,7 +3375,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$15:$J$15</c15:sqref>
@@ -3321,7 +3388,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3334,7 +3401,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$16</c15:sqref>
@@ -3361,7 +3428,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3384,7 +3451,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$16:$J$16</c15:sqref>
@@ -3397,7 +3464,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3410,7 +3477,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$17</c15:sqref>
@@ -3437,7 +3504,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3460,7 +3527,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$17:$J$17</c15:sqref>
@@ -3473,7 +3540,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3486,7 +3553,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$18</c15:sqref>
@@ -3513,7 +3580,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3536,7 +3603,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$18:$J$18</c15:sqref>
@@ -3549,7 +3616,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -3562,7 +3629,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$19</c15:sqref>
@@ -3589,7 +3656,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$1:$J$1</c15:sqref>
@@ -3612,7 +3679,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$H$19:$J$19</c15:sqref>
@@ -3625,7 +3692,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-784F-45E8-86B2-23645BBA4A36}"/>
                   </c:ext>
@@ -4449,7 +4516,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$9</c15:sqref>
@@ -4475,7 +4542,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4498,7 +4565,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$9:$M$9</c15:sqref>
@@ -4511,7 +4578,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4524,7 +4591,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$10</c15:sqref>
@@ -4550,7 +4617,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4573,7 +4640,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$10:$M$10</c15:sqref>
@@ -4586,7 +4653,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4599,7 +4666,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$11</c15:sqref>
@@ -4625,7 +4692,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4648,7 +4715,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$11:$M$11</c15:sqref>
@@ -4661,7 +4728,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4674,7 +4741,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$12</c15:sqref>
@@ -4700,7 +4767,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4723,7 +4790,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$12:$M$12</c15:sqref>
@@ -4736,7 +4803,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4749,7 +4816,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$13</c15:sqref>
@@ -4775,7 +4842,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4798,7 +4865,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$13:$M$13</c15:sqref>
@@ -4811,7 +4878,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4824,7 +4891,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$14</c15:sqref>
@@ -4851,7 +4918,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4874,7 +4941,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$14:$M$14</c15:sqref>
@@ -4887,7 +4954,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4900,7 +4967,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$15</c15:sqref>
@@ -4927,7 +4994,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -4950,7 +5017,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$15:$M$15</c15:sqref>
@@ -4963,7 +5030,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -4976,7 +5043,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$16</c15:sqref>
@@ -5003,7 +5070,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -5026,7 +5093,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$16:$M$16</c15:sqref>
@@ -5039,7 +5106,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -5052,7 +5119,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$17</c15:sqref>
@@ -5079,7 +5146,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -5102,7 +5169,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$17:$M$17</c15:sqref>
@@ -5115,7 +5182,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -5128,7 +5195,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$18</c15:sqref>
@@ -5155,7 +5222,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -5178,7 +5245,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$18:$M$18</c15:sqref>
@@ -5191,7 +5258,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -5204,7 +5271,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$19</c15:sqref>
@@ -5231,7 +5298,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$1:$M$1</c15:sqref>
@@ -5254,7 +5321,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$K$19:$M$19</c15:sqref>
@@ -5267,7 +5334,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-1D3F-4577-B7E7-6F108892F294}"/>
                   </c:ext>
@@ -6096,7 +6163,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$9</c15:sqref>
@@ -6122,7 +6189,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6145,7 +6212,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$9:$D$9</c15:sqref>
@@ -6158,7 +6225,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6171,7 +6238,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$10</c15:sqref>
@@ -6197,7 +6264,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6220,7 +6287,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$10:$D$10</c15:sqref>
@@ -6233,7 +6300,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6246,7 +6313,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$11</c15:sqref>
@@ -6272,7 +6339,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6295,7 +6362,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$11:$D$11</c15:sqref>
@@ -6308,7 +6375,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6321,7 +6388,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$12</c15:sqref>
@@ -6347,7 +6414,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6370,7 +6437,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$12:$D$12</c15:sqref>
@@ -6383,7 +6450,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6396,7 +6463,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$13</c15:sqref>
@@ -6422,7 +6489,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6445,7 +6512,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$13:$D$13</c15:sqref>
@@ -6458,7 +6525,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6471,7 +6538,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$14</c15:sqref>
@@ -6498,7 +6565,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6521,7 +6588,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$14:$D$14</c15:sqref>
@@ -6534,7 +6601,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6547,7 +6614,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$15</c15:sqref>
@@ -6574,7 +6641,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6597,7 +6664,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$15:$D$15</c15:sqref>
@@ -6610,7 +6677,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6623,7 +6690,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$16</c15:sqref>
@@ -6650,7 +6717,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6673,7 +6740,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$16:$D$16</c15:sqref>
@@ -6686,7 +6753,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6699,7 +6766,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$17</c15:sqref>
@@ -6726,7 +6793,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6749,7 +6816,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$17:$D$17</c15:sqref>
@@ -6762,7 +6829,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6775,7 +6842,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$18</c15:sqref>
@@ -6802,7 +6869,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6825,7 +6892,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$18:$D$18</c15:sqref>
@@ -6838,7 +6905,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -6851,7 +6918,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$A$19</c15:sqref>
@@ -6878,7 +6945,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$1:$D$1</c15:sqref>
@@ -6901,7 +6968,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet2!$B$19:$D$19</c15:sqref>
@@ -6914,7 +6981,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-C2C8-4CB6-A7FC-402D44A91322}"/>
                   </c:ext>
@@ -15913,8 +15980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EE6D3D-13C0-423A-8B3E-C71F2791FDC0}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15927,7 +15994,7 @@
     <col min="6" max="6" width="41" customWidth="1"/>
     <col min="7" max="7" width="49.109375" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.35">
@@ -15965,6 +16032,9 @@
         <v>65</v>
       </c>
       <c r="H3" s="30"/>
+      <c r="I3" s="36" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
@@ -15989,7 +16059,7 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="159.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -16015,7 +16085,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -16561,7 +16631,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16569,6 +16639,7 @@
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -16655,7 +16726,7 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
@@ -17055,7 +17126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B70695-90B4-4F10-BA8A-A5CB1AC61EA7}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -17835,4 +17906,135 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDFA1ED-747F-4C78-8AF7-C503CF296B00}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>